--- a/cisco/amp/group_create.xlsx
+++ b/cisco/amp/group_create.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rashid Kifayatullah\learning\dev\github\tools\cisco\amp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rashid Kifayatullah\learning\dev\00-github\tools\cisco\amp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF8374CA-4684-41D0-A9A8-B67D78E0ED68}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E06A1784-23A6-4DDF-B926-114999A71B26}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-60" yWindow="-16080" windowWidth="19005" windowHeight="13350" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1485" yWindow="-15510" windowWidth="19005" windowHeight="13350" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="groups" sheetId="1" r:id="rId1"/>
@@ -46,10 +46,10 @@
     <t>_yaml</t>
   </si>
   <si>
-    <t>A-Temp-1</t>
+    <t>Temp for testing</t>
   </si>
   <si>
-    <t>Temp for testing</t>
+    <t>A-Temp-2</t>
   </si>
 </sst>
 </file>
@@ -407,7 +407,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -430,15 +430,16 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
       <c r="C2" s="2" t="str">
-        <f>"- "&amp;$A$1&amp;": "&amp;A2&amp;";"&amp;
-"  "&amp;$B$1&amp;": "&amp;B2&amp;";"</f>
-        <v>- name: A-Temp-1;  description: Temp for testing;</v>
+        <f xml:space="preserve">
+"- "&amp;$A$1&amp;": "&amp;A2&amp;";;"&amp;
+"  "&amp;$B$1&amp;": "&amp;B2&amp;";;"</f>
+        <v>- name: A-Temp-2;;  description: Temp for testing;;</v>
       </c>
     </row>
   </sheetData>

--- a/cisco/amp/group_create.xlsx
+++ b/cisco/amp/group_create.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rashid Kifayatullah\learning\dev\00-github\tools\cisco\amp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E06A1784-23A6-4DDF-B926-114999A71B26}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF605AD0-1FC8-4D92-982B-ECD1E673EB9C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1485" yWindow="-15510" windowWidth="19005" windowHeight="13350" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="405" yWindow="-15960" windowWidth="23160" windowHeight="14880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="groups" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="5">
   <si>
     <t>name</t>
   </si>
@@ -407,70 +407,67 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <cols>
+    <col min="1" max="1" width="34.234375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="44.29296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.17578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A2" s="2" t="str">
+        <f>IF(ISBLANK(B2),"",
+"- "&amp;$B$1&amp;": "&amp;B2&amp;";;"&amp;
+"  "&amp;$C$1&amp;": "&amp;C2&amp;";;"&amp;
+"")</f>
+        <v>- name: A-Temp-2;;  description: Temp for testing;;</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7B207E9-89DE-4503-8FE4-3AD779B06F24}">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="1" max="1" width="44.29296875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27.17578125" customWidth="1"/>
-    <col min="3" max="3" width="63.5859375" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="2" t="str">
-        <f xml:space="preserve">
-"- "&amp;$A$1&amp;": "&amp;A2&amp;";;"&amp;
-"  "&amp;$B$1&amp;": "&amp;B2&amp;";;"</f>
-        <v>- name: A-Temp-2;;  description: Temp for testing;;</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7B207E9-89DE-4503-8FE4-3AD779B06F24}">
-  <dimension ref="A1:C1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C111"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
-  <cols>
-    <col min="1" max="1" width="44.29296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.17578125" customWidth="1"/>
-    <col min="3" max="3" width="63.5859375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
       </c>
     </row>
   </sheetData>
